--- a/功能点.xlsx
+++ b/功能点.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -15,14 +15,156 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+  <si>
+    <t>每日舌尖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀑布流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞，评论，删除，收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从图库选取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圈子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清楚缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大图查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫一扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -34,10 +176,108 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -46,8 +286,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -342,13 +605,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="48.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A17:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -360,6 +842,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -372,6 +855,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>